--- a/report/excelReport/CloudAPITestCaseResult.xlsx
+++ b/report/excelReport/CloudAPITestCaseResult.xlsx
@@ -533,6 +533,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,6 +563,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,6 +581,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,24 +617,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -617,25 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +695,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,61 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -859,152 +859,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,13 +1014,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,530 +1413,530 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4">
         <v>200</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4">
         <v>200</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4">
         <v>10021</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4">
         <v>10022</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4">
         <v>10022</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" ht="43.5" customHeight="1" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:13">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>10023</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>10024</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>200</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4">
         <v>200</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4">
         <v>200</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4">
         <v>10021</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4">
         <v>10022</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4">
         <v>10022</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="12"/>
@@ -2052,11 +2055,11 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
@@ -2075,148 +2078,148 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,280 +2230,137 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="4:13">
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="11:12">
+      <c r="K4" s="8"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="4:11">
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:11">
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="4:11">
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="4:11">
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="4:11">
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="4:11">
-      <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="4:11">
-      <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="4:11">
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="4:11">
-      <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:11">
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:11">
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:11">
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:11">
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:11">
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="4:11">
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
